--- a/text.xlsx
+++ b/text.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\corsi_blocks-master\corsi_blocks-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\new\corsi_blocks-master\corsi_blocks-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC0F859-CBFE-4D7C-BBF4-A241E942E010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0B3151-36AE-4B19-B1E8-D80D4301E1FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25305" yWindow="-750" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,15 @@
   </si>
   <si>
     <t xml:space="preserve">
-ในเกมนี้จะมีกล่องขึ้นมาทั้งหมด 9 กล่อง 
-โดยจะมีกล่องกระพริบเป็นลำดับ
-จะเริ่มจาก 3 ลำดับไปจนถึง 7 
-แล้วต้องจำและคลิกตามลำดับนั้นๆ ให้ถูกต้อง
+ยินดีต้อนรับสู่ corsi task
 แตะหน้าจอเพื่อดำเนินการต่อ</t>
   </si>
   <si>
     <t xml:space="preserve">
-ยินดีต้อนรับสู่ corsi task
+ในเกมนี้จะมีกล่องขึ้นมาทั้งหมด 9 กล่อง 
+โดยจะมีกล่องกระพริบเป็นลำดับ
+จะเริ่มจาก 3 ลำดับไปจนถึง 7 ลำดับ
+แล้วต้องจำและคลิกตามลำดับนั้นๆ ให้ถูกต้อง
 แตะหน้าจอเพื่อดำเนินการต่อ</t>
   </si>
 </sst>
@@ -51,7 +51,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -363,26 +363,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.375" customWidth="1"/>
+    <col min="1" max="1" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
